--- a/Data/Upbit_BTCKRW_days_1.xlsx
+++ b/Data/Upbit_BTCKRW_days_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="643">
   <si>
     <t>Time</t>
   </si>
@@ -1116,6 +1116,834 @@
   </si>
   <si>
     <t>2018-03-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-03-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-03-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-04-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-04-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-05-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-05-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-06-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-06-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-08T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-09T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-09T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-10T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-10T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-11T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-11T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-12T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-12T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-13T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-13T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-14T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-14T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-15T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-15T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-16T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-16T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-17T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-17T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-18T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-18T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-19T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-19T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-20T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-20T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-21T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-21T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-22T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-22T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-23T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-23T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-24T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-24T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-25T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-25T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-26T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-26T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-27T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-27T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-28T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-28T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-29T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-29T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-30T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-30T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-07-31T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-07-31T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-01T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-01T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-02T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-02T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-03T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-03T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-04T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-04T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-05T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-05T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-06T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-06T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-07T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-07T09:00:00+09:00</t>
+  </si>
+  <si>
+    <t>2018-08-08T00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2018-08-08T09:00:00+09:00</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +2279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5610,16 +6438,3190 @@
         <v>9779000</v>
       </c>
       <c r="D181" t="n">
-        <v>9779000</v>
+        <v>9850000</v>
       </c>
       <c r="E181" t="n">
+        <v>9253000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9847000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>15006.67818287</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>367</v>
+      </c>
+      <c r="B182" t="s">
+        <v>368</v>
+      </c>
+      <c r="C182" t="n">
+        <v>9847000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>9550000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9580000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>16804.4057451</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>369</v>
+      </c>
+      <c r="B183" t="s">
+        <v>370</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9580000</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9649000</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9408000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9477000</v>
+      </c>
+      <c r="G183" t="n">
+        <v>11031.07579798</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>371</v>
+      </c>
+      <c r="B184" t="s">
+        <v>372</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9480000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9570000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8801000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9052000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>13942.96366853</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>373</v>
+      </c>
+      <c r="B185" t="s">
+        <v>374</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9054000</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9141000</v>
+      </c>
+      <c r="E185" t="n">
+        <v>8520000</v>
+      </c>
+      <c r="F185" t="n">
+        <v>8651000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14209.6371507</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>375</v>
+      </c>
+      <c r="B186" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8651000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>8886000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8560000</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8730000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>9953.7299998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>377</v>
+      </c>
+      <c r="B187" t="s">
+        <v>378</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8730000</v>
+      </c>
+      <c r="D187" t="n">
+        <v>8766000</v>
+      </c>
+      <c r="E187" t="n">
+        <v>7780000</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7915000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>18276.83128802</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>379</v>
+      </c>
+      <c r="B188" t="s">
+        <v>380</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7911000</v>
+      </c>
+      <c r="D188" t="n">
+        <v>8090000</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7431000</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7602000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>21297.75214749</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>381</v>
+      </c>
+      <c r="B189" t="s">
+        <v>382</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7602000</v>
+      </c>
+      <c r="D189" t="n">
+        <v>7934000</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7540000</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7697000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>13024.44541947</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>383</v>
+      </c>
+      <c r="B190" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" t="n">
+        <v>7688000</v>
+      </c>
+      <c r="D190" t="n">
+        <v>7774000</v>
+      </c>
+      <c r="E190" t="n">
+        <v>7087000</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7482000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>16446.53644957</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>385</v>
+      </c>
+      <c r="B191" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7486000</v>
+      </c>
+      <c r="D191" t="n">
+        <v>7851000</v>
+      </c>
+      <c r="E191" t="n">
+        <v>7390000</v>
+      </c>
+      <c r="F191" t="n">
+        <v>7710000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>15765.52176574</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>387</v>
+      </c>
+      <c r="B192" t="s">
+        <v>388</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7713000</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8175000</v>
+      </c>
+      <c r="E192" t="n">
+        <v>7643000</v>
+      </c>
+      <c r="F192" t="n">
+        <v>8092000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>21006.76635312</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>389</v>
+      </c>
+      <c r="B193" t="s">
+        <v>390</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8091000</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8120000</v>
+      </c>
+      <c r="E193" t="n">
+        <v>7403000</v>
+      </c>
+      <c r="F193" t="n">
+        <v>7492000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>16809.36722484</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>391</v>
+      </c>
+      <c r="B194" t="s">
+        <v>392</v>
+      </c>
+      <c r="C194" t="n">
+        <v>7492000</v>
+      </c>
+      <c r="D194" t="n">
+        <v>7834000</v>
+      </c>
+      <c r="E194" t="n">
+        <v>7188000</v>
+      </c>
+      <c r="F194" t="n">
+        <v>7408000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>32381.00201758</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>393</v>
+      </c>
+      <c r="B195" t="s">
+        <v>394</v>
+      </c>
+      <c r="C195" t="n">
+        <v>7408000</v>
+      </c>
+      <c r="D195" t="n">
+        <v>7488000</v>
+      </c>
+      <c r="E195" t="n">
+        <v>7125000</v>
+      </c>
+      <c r="F195" t="n">
+        <v>7280000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>9428.543999510001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>395</v>
+      </c>
+      <c r="B196" t="s">
+        <v>396</v>
+      </c>
+      <c r="C196" t="n">
+        <v>7277000</v>
+      </c>
+      <c r="D196" t="n">
+        <v>7673000</v>
+      </c>
+      <c r="E196" t="n">
+        <v>7232000</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7533000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12182.3813802</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>397</v>
+      </c>
+      <c r="B197" t="s">
+        <v>398</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7533000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>7657000</v>
+      </c>
+      <c r="E197" t="n">
+        <v>7480000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7622000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>11679.05867346</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>399</v>
+      </c>
+      <c r="B198" t="s">
+        <v>400</v>
+      </c>
+      <c r="C198" t="n">
+        <v>7621000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>7752000</v>
+      </c>
+      <c r="E198" t="n">
+        <v>7290000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>7450000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>16765.03922053</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>401</v>
+      </c>
+      <c r="B199" t="s">
+        <v>402</v>
+      </c>
+      <c r="C199" t="n">
+        <v>7449000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>7468000</v>
+      </c>
+      <c r="E199" t="n">
+        <v>7263000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>7428000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12263.5228475</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>403</v>
+      </c>
+      <c r="B200" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" t="n">
+        <v>7428000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>7483000</v>
+      </c>
+      <c r="E200" t="n">
+        <v>7351000</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7429000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>13067.55564243</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>405</v>
+      </c>
+      <c r="B201" t="s">
+        <v>406</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7432000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>8280000</v>
+      </c>
+      <c r="E201" t="n">
+        <v>7200000</v>
+      </c>
+      <c r="F201" t="n">
+        <v>8121000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>40389.83330536</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>407</v>
+      </c>
+      <c r="B202" t="s">
+        <v>408</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8125000</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8625000</v>
+      </c>
+      <c r="E202" t="n">
+        <v>7925000</v>
+      </c>
+      <c r="F202" t="n">
+        <v>8375000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>29730.02055218</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>409</v>
+      </c>
+      <c r="B203" t="s">
+        <v>410</v>
+      </c>
+      <c r="C203" t="n">
+        <v>8375000</v>
+      </c>
+      <c r="D203" t="n">
+        <v>8575000</v>
+      </c>
+      <c r="E203" t="n">
+        <v>8120000</v>
+      </c>
+      <c r="F203" t="n">
+        <v>8350000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>18691.42301782</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>411</v>
+      </c>
+      <c r="B204" t="s">
+        <v>412</v>
+      </c>
+      <c r="C204" t="n">
+        <v>8349000</v>
+      </c>
+      <c r="D204" t="n">
+        <v>8710000</v>
+      </c>
+      <c r="E204" t="n">
+        <v>8250000</v>
+      </c>
+      <c r="F204" t="n">
+        <v>8663000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>15472.99524881</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>413</v>
+      </c>
+      <c r="B205" t="s">
+        <v>414</v>
+      </c>
+      <c r="C205" t="n">
+        <v>8665000</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8840000</v>
+      </c>
+      <c r="E205" t="n">
+        <v>8449000</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8663000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>17194.39323556</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>415</v>
+      </c>
+      <c r="B206" t="s">
+        <v>416</v>
+      </c>
+      <c r="C206" t="n">
+        <v>8663000</v>
+      </c>
+      <c r="D206" t="n">
+        <v>8704000</v>
+      </c>
+      <c r="E206" t="n">
+        <v>8360000</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>24694.92021697</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>417</v>
+      </c>
+      <c r="B207" t="s">
+        <v>418</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="D207" t="n">
+        <v>8679000</v>
+      </c>
+      <c r="E207" t="n">
+        <v>8445000</v>
+      </c>
+      <c r="F207" t="n">
+        <v>8652000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>20637.8768936</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>419</v>
+      </c>
+      <c r="B208" t="s">
+        <v>420</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8652000</v>
+      </c>
+      <c r="D208" t="n">
+        <v>8999000</v>
+      </c>
+      <c r="E208" t="n">
+        <v>8601000</v>
+      </c>
+      <c r="F208" t="n">
+        <v>8994000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>28767.85905612</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>421</v>
+      </c>
+      <c r="B209" t="s">
+        <v>422</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8994000</v>
+      </c>
+      <c r="D209" t="n">
+        <v>9666000</v>
+      </c>
+      <c r="E209" t="n">
+        <v>8710000</v>
+      </c>
+      <c r="F209" t="n">
+        <v>9552000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>25528.47959504</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>423</v>
+      </c>
+      <c r="B210" t="s">
+        <v>424</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9552000</v>
+      </c>
+      <c r="D210" t="n">
+        <v>9845000</v>
+      </c>
+      <c r="E210" t="n">
+        <v>9285000</v>
+      </c>
+      <c r="F210" t="n">
+        <v>9735000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>18553.75599688</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>425</v>
+      </c>
+      <c r="B211" t="s">
+        <v>426</v>
+      </c>
+      <c r="C211" t="n">
+        <v>9735000</v>
+      </c>
+      <c r="D211" t="n">
+        <v>9757000</v>
+      </c>
+      <c r="E211" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="F211" t="n">
+        <v>9602000</v>
+      </c>
+      <c r="G211" t="n">
+        <v>12583.32708627</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>427</v>
+      </c>
+      <c r="B212" t="s">
+        <v>428</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9602000</v>
+      </c>
+      <c r="D212" t="n">
+        <v>9771000</v>
+      </c>
+      <c r="E212" t="n">
+        <v>9530000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>9760000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>12885.92089887</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>429</v>
+      </c>
+      <c r="B213" t="s">
+        <v>430</v>
+      </c>
+      <c r="C213" t="n">
+        <v>9758000</v>
+      </c>
+      <c r="D213" t="n">
+        <v>10670000</v>
+      </c>
+      <c r="E213" t="n">
+        <v>9730000</v>
+      </c>
+      <c r="F213" t="n">
+        <v>10505000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>23344.4840328</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>431</v>
+      </c>
+      <c r="B214" t="s">
+        <v>432</v>
+      </c>
+      <c r="C214" t="n">
+        <v>10505000</v>
+      </c>
+      <c r="D214" t="n">
+        <v>10755000</v>
+      </c>
+      <c r="E214" t="n">
+        <v>9723000</v>
+      </c>
+      <c r="F214" t="n">
+        <v>9829000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>25689.72597052</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>433</v>
+      </c>
+      <c r="B215" t="s">
+        <v>434</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9829000</v>
+      </c>
+      <c r="D215" t="n">
+        <v>10508000</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9510000</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10130000</v>
+      </c>
+      <c r="G215" t="n">
+        <v>22295.30584657</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>435</v>
+      </c>
+      <c r="B216" t="s">
+        <v>436</v>
+      </c>
+      <c r="C216" t="n">
+        <v>10130000</v>
+      </c>
+      <c r="D216" t="n">
+        <v>10200000</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9778000</v>
+      </c>
+      <c r="F216" t="n">
+        <v>9819000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>17528.43197899</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>437</v>
+      </c>
+      <c r="B217" t="s">
+        <v>438</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9821000</v>
+      </c>
+      <c r="D217" t="n">
+        <v>10118000</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9750000</v>
+      </c>
+      <c r="F217" t="n">
+        <v>10043000</v>
+      </c>
+      <c r="G217" t="n">
+        <v>12164.64763884</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>439</v>
+      </c>
+      <c r="B218" t="s">
+        <v>440</v>
+      </c>
+      <c r="C218" t="n">
+        <v>10043000</v>
+      </c>
+      <c r="D218" t="n">
+        <v>10256000</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9894000</v>
+      </c>
+      <c r="F218" t="n">
+        <v>10187000</v>
+      </c>
+      <c r="G218" t="n">
+        <v>14834.01522815</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>441</v>
+      </c>
+      <c r="B219" t="s">
+        <v>442</v>
+      </c>
+      <c r="C219" t="n">
+        <v>10187000</v>
+      </c>
+      <c r="D219" t="n">
+        <v>10292000</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9934000</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10138000</v>
+      </c>
+      <c r="G219" t="n">
+        <v>14851.10015753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>443</v>
+      </c>
+      <c r="B220" t="s">
+        <v>444</v>
+      </c>
+      <c r="C220" t="n">
+        <v>10135000</v>
+      </c>
+      <c r="D220" t="n">
+        <v>10144000</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9740000</v>
+      </c>
+      <c r="F220" t="n">
+        <v>9896000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>15399.91370228</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>445</v>
+      </c>
+      <c r="B221" t="s">
+        <v>446</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9896000</v>
+      </c>
+      <c r="D221" t="n">
+        <v>10078000</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9811000</v>
+      </c>
+      <c r="F221" t="n">
+        <v>10032000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>11828.98111498</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>447</v>
+      </c>
+      <c r="B222" t="s">
+        <v>448</v>
+      </c>
+      <c r="C222" t="n">
+        <v>10032000</v>
+      </c>
+      <c r="D222" t="n">
+        <v>10785000</v>
+      </c>
+      <c r="E222" t="n">
+        <v>10010000</v>
+      </c>
+      <c r="F222" t="n">
+        <v>10683000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>20391.11856627</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>449</v>
+      </c>
+      <c r="B223" t="s">
+        <v>450</v>
+      </c>
+      <c r="C223" t="n">
+        <v>10670000</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10901000</v>
+      </c>
+      <c r="E223" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="F223" t="n">
+        <v>10645000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>12582.44048262</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>451</v>
+      </c>
+      <c r="B224" t="s">
+        <v>452</v>
+      </c>
+      <c r="C224" t="n">
+        <v>10645000</v>
+      </c>
+      <c r="D224" t="n">
+        <v>10907000</v>
+      </c>
+      <c r="E224" t="n">
+        <v>10621000</v>
+      </c>
+      <c r="F224" t="n">
+        <v>10820000</v>
+      </c>
+      <c r="G224" t="n">
+        <v>9581.875222459999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>453</v>
+      </c>
+      <c r="B225" t="s">
+        <v>454</v>
+      </c>
+      <c r="C225" t="n">
+        <v>10820000</v>
+      </c>
+      <c r="D225" t="n">
+        <v>10963000</v>
+      </c>
+      <c r="E225" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="F225" t="n">
+        <v>10684000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>8806.00591903</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>455</v>
+      </c>
+      <c r="B226" t="s">
+        <v>456</v>
+      </c>
+      <c r="C226" t="n">
+        <v>10684000</v>
+      </c>
+      <c r="D226" t="n">
+        <v>10721000</v>
+      </c>
+      <c r="E226" t="n">
+        <v>10264000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>10422000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>8143.48490464</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>457</v>
+      </c>
+      <c r="B227" t="s">
+        <v>458</v>
+      </c>
+      <c r="C227" t="n">
+        <v>10439000</v>
+      </c>
+      <c r="D227" t="n">
+        <v>10499000</v>
+      </c>
+      <c r="E227" t="n">
+        <v>10130000</v>
+      </c>
+      <c r="F227" t="n">
+        <v>10233000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>7651.23404175</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>459</v>
+      </c>
+      <c r="B228" t="s">
+        <v>460</v>
+      </c>
+      <c r="C228" t="n">
+        <v>10230000</v>
+      </c>
+      <c r="D228" t="n">
+        <v>10433000</v>
+      </c>
+      <c r="E228" t="n">
+        <v>9917000</v>
+      </c>
+      <c r="F228" t="n">
+        <v>10405000</v>
+      </c>
+      <c r="G228" t="n">
+        <v>9955.39479461</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>461</v>
+      </c>
+      <c r="B229" t="s">
+        <v>462</v>
+      </c>
+      <c r="C229" t="n">
+        <v>10405000</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10474000</v>
+      </c>
+      <c r="E229" t="n">
+        <v>9895000</v>
+      </c>
+      <c r="F229" t="n">
+        <v>9976000</v>
+      </c>
+      <c r="G229" t="n">
+        <v>9077.782694580001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>463</v>
+      </c>
+      <c r="B230" t="s">
+        <v>464</v>
+      </c>
+      <c r="C230" t="n">
+        <v>9976000</v>
+      </c>
+      <c r="D230" t="n">
+        <v>9985000</v>
+      </c>
+      <c r="E230" t="n">
+        <v>8788000</v>
+      </c>
+      <c r="F230" t="n">
+        <v>9256000</v>
+      </c>
+      <c r="G230" t="n">
+        <v>20997.66993227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>465</v>
+      </c>
+      <c r="B231" t="s">
+        <v>466</v>
+      </c>
+      <c r="C231" t="n">
+        <v>9257000</v>
+      </c>
+      <c r="D231" t="n">
+        <v>9644000</v>
+      </c>
+      <c r="E231" t="n">
+        <v>9014000</v>
+      </c>
+      <c r="F231" t="n">
+        <v>9481000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>10980.18990988</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>467</v>
+      </c>
+      <c r="B232" t="s">
+        <v>468</v>
+      </c>
+      <c r="C232" t="n">
+        <v>9480000</v>
+      </c>
+      <c r="D232" t="n">
+        <v>9851000</v>
+      </c>
+      <c r="E232" t="n">
+        <v>9360000</v>
+      </c>
+      <c r="F232" t="n">
+        <v>9803000</v>
+      </c>
+      <c r="G232" t="n">
+        <v>8513.44899868</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>469</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" t="n">
+        <v>9804000</v>
+      </c>
+      <c r="D233" t="n">
+        <v>9935000</v>
+      </c>
+      <c r="E233" t="n">
+        <v>9400000</v>
+      </c>
+      <c r="F233" t="n">
+        <v>9797000</v>
+      </c>
+      <c r="G233" t="n">
+        <v>12813.13382791</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>471</v>
+      </c>
+      <c r="B234" t="s">
+        <v>472</v>
+      </c>
+      <c r="C234" t="n">
+        <v>9802000</v>
+      </c>
+      <c r="D234" t="n">
+        <v>9879000</v>
+      </c>
+      <c r="E234" t="n">
+        <v>9458000</v>
+      </c>
+      <c r="F234" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="G234" t="n">
+        <v>8325.82703617</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>473</v>
+      </c>
+      <c r="B235" t="s">
+        <v>474</v>
+      </c>
+      <c r="C235" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9542000</v>
+      </c>
+      <c r="E235" t="n">
+        <v>9015000</v>
+      </c>
+      <c r="F235" t="n">
+        <v>9297000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>12218.79341156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>475</v>
+      </c>
+      <c r="B236" t="s">
+        <v>476</v>
+      </c>
+      <c r="C236" t="n">
+        <v>9297000</v>
+      </c>
+      <c r="D236" t="n">
+        <v>9390000</v>
+      </c>
+      <c r="E236" t="n">
+        <v>9020000</v>
+      </c>
+      <c r="F236" t="n">
+        <v>9090000</v>
+      </c>
+      <c r="G236" t="n">
+        <v>6921.98679007</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>477</v>
+      </c>
+      <c r="B237" t="s">
+        <v>478</v>
+      </c>
+      <c r="C237" t="n">
+        <v>9072000</v>
+      </c>
+      <c r="D237" t="n">
+        <v>9186000</v>
+      </c>
+      <c r="E237" t="n">
+        <v>8881000</v>
+      </c>
+      <c r="F237" t="n">
+        <v>9165000</v>
+      </c>
+      <c r="G237" t="n">
+        <v>5904.08097087</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>479</v>
+      </c>
+      <c r="B238" t="s">
+        <v>480</v>
+      </c>
+      <c r="C238" t="n">
+        <v>9165000</v>
+      </c>
+      <c r="D238" t="n">
+        <v>9299000</v>
+      </c>
+      <c r="E238" t="n">
+        <v>9068000</v>
+      </c>
+      <c r="F238" t="n">
+        <v>9112000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>6285.06750236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>481</v>
+      </c>
+      <c r="B239" t="s">
+        <v>482</v>
+      </c>
+      <c r="C239" t="n">
+        <v>9112000</v>
+      </c>
+      <c r="D239" t="n">
+        <v>9398000</v>
+      </c>
+      <c r="E239" t="n">
+        <v>9051000</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9370000</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4901.03255016</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>483</v>
+      </c>
+      <c r="B240" t="s">
+        <v>484</v>
+      </c>
+      <c r="C240" t="n">
+        <v>9370000</v>
+      </c>
+      <c r="D240" t="n">
+        <v>9439000</v>
+      </c>
+      <c r="E240" t="n">
+        <v>9279000</v>
+      </c>
+      <c r="F240" t="n">
         <v>9345000</v>
       </c>
-      <c r="F181" t="n">
-        <v>9454000</v>
-      </c>
-      <c r="G181" t="n">
-        <v>6037.56218267</v>
+      <c r="G240" t="n">
+        <v>4741.95012493</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>485</v>
+      </c>
+      <c r="B241" t="s">
+        <v>486</v>
+      </c>
+      <c r="C241" t="n">
+        <v>9345000</v>
+      </c>
+      <c r="D241" t="n">
+        <v>9356000</v>
+      </c>
+      <c r="E241" t="n">
+        <v>8931000</v>
+      </c>
+      <c r="F241" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="G241" t="n">
+        <v>4999.60324703</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>487</v>
+      </c>
+      <c r="B242" t="s">
+        <v>488</v>
+      </c>
+      <c r="C242" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="D242" t="n">
+        <v>9020000</v>
+      </c>
+      <c r="E242" t="n">
+        <v>8433000</v>
+      </c>
+      <c r="F242" t="n">
+        <v>8483000</v>
+      </c>
+      <c r="G242" t="n">
+        <v>8085.0532098</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>489</v>
+      </c>
+      <c r="B243" t="s">
+        <v>490</v>
+      </c>
+      <c r="C243" t="n">
+        <v>8483000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>8767000</v>
+      </c>
+      <c r="E243" t="n">
+        <v>8185000</v>
+      </c>
+      <c r="F243" t="n">
+        <v>8415000</v>
+      </c>
+      <c r="G243" t="n">
+        <v>8771.342704549999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>491</v>
+      </c>
+      <c r="B244" t="s">
+        <v>492</v>
+      </c>
+      <c r="C244" t="n">
+        <v>8415000</v>
+      </c>
+      <c r="D244" t="n">
+        <v>8480000</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8180000</v>
+      </c>
+      <c r="F244" t="n">
+        <v>8317000</v>
+      </c>
+      <c r="G244" t="n">
+        <v>4317.19540355</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>493</v>
+      </c>
+      <c r="B245" t="s">
+        <v>494</v>
+      </c>
+      <c r="C245" t="n">
+        <v>8317000</v>
+      </c>
+      <c r="D245" t="n">
+        <v>8420000</v>
+      </c>
+      <c r="E245" t="n">
+        <v>8122000</v>
+      </c>
+      <c r="F245" t="n">
+        <v>8162000</v>
+      </c>
+      <c r="G245" t="n">
+        <v>3099.59149706</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>495</v>
+      </c>
+      <c r="B246" t="s">
+        <v>496</v>
+      </c>
+      <c r="C246" t="n">
+        <v>8162000</v>
+      </c>
+      <c r="D246" t="n">
+        <v>8216000</v>
+      </c>
+      <c r="E246" t="n">
+        <v>8040000</v>
+      </c>
+      <c r="F246" t="n">
+        <v>8182000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2635.09988761</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>497</v>
+      </c>
+      <c r="B247" t="s">
+        <v>498</v>
+      </c>
+      <c r="C247" t="n">
+        <v>8182000</v>
+      </c>
+      <c r="D247" t="n">
+        <v>8261000</v>
+      </c>
+      <c r="E247" t="n">
+        <v>7858000</v>
+      </c>
+      <c r="F247" t="n">
+        <v>7903000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>5922.32658056</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>499</v>
+      </c>
+      <c r="B248" t="s">
+        <v>500</v>
+      </c>
+      <c r="C248" t="n">
+        <v>7903000</v>
+      </c>
+      <c r="D248" t="n">
+        <v>8360000</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7813000</v>
+      </c>
+      <c r="F248" t="n">
+        <v>8299000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>6682.61704253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>501</v>
+      </c>
+      <c r="B249" t="s">
+        <v>502</v>
+      </c>
+      <c r="C249" t="n">
+        <v>8300000</v>
+      </c>
+      <c r="D249" t="n">
+        <v>8436000</v>
+      </c>
+      <c r="E249" t="n">
+        <v>8100000</v>
+      </c>
+      <c r="F249" t="n">
+        <v>8207000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>6755.11057646</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>503</v>
+      </c>
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="n">
+        <v>8198000</v>
+      </c>
+      <c r="D250" t="n">
+        <v>8375000</v>
+      </c>
+      <c r="E250" t="n">
+        <v>8110000</v>
+      </c>
+      <c r="F250" t="n">
+        <v>8282000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>4978.12880286</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>505</v>
+      </c>
+      <c r="B251" t="s">
+        <v>506</v>
+      </c>
+      <c r="C251" t="n">
+        <v>8278000</v>
+      </c>
+      <c r="D251" t="n">
+        <v>8370000</v>
+      </c>
+      <c r="E251" t="n">
+        <v>8139000</v>
+      </c>
+      <c r="F251" t="n">
+        <v>8282000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>3751.37371919</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>507</v>
+      </c>
+      <c r="B252" t="s">
+        <v>508</v>
+      </c>
+      <c r="C252" t="n">
+        <v>8282000</v>
+      </c>
+      <c r="D252" t="n">
+        <v>8425000</v>
+      </c>
+      <c r="E252" t="n">
+        <v>8211000</v>
+      </c>
+      <c r="F252" t="n">
+        <v>8339000</v>
+      </c>
+      <c r="G252" t="n">
+        <v>3557.44198334</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>509</v>
+      </c>
+      <c r="B253" t="s">
+        <v>510</v>
+      </c>
+      <c r="C253" t="n">
+        <v>8338000</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8443000</v>
+      </c>
+      <c r="E253" t="n">
+        <v>8297000</v>
+      </c>
+      <c r="F253" t="n">
+        <v>8419000</v>
+      </c>
+      <c r="G253" t="n">
+        <v>3755.93937776</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>511</v>
+      </c>
+      <c r="B254" t="s">
+        <v>512</v>
+      </c>
+      <c r="C254" t="n">
+        <v>8419000</v>
+      </c>
+      <c r="D254" t="n">
+        <v>8477000</v>
+      </c>
+      <c r="E254" t="n">
+        <v>8206000</v>
+      </c>
+      <c r="F254" t="n">
+        <v>8248000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>3615.54200858</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>513</v>
+      </c>
+      <c r="B255" t="s">
+        <v>514</v>
+      </c>
+      <c r="C255" t="n">
+        <v>8241000</v>
+      </c>
+      <c r="D255" t="n">
+        <v>8400000</v>
+      </c>
+      <c r="E255" t="n">
+        <v>8130000</v>
+      </c>
+      <c r="F255" t="n">
+        <v>8360000</v>
+      </c>
+      <c r="G255" t="n">
+        <v>3715.39795807</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>515</v>
+      </c>
+      <c r="B256" t="s">
+        <v>516</v>
+      </c>
+      <c r="C256" t="n">
+        <v>8359000</v>
+      </c>
+      <c r="D256" t="n">
+        <v>8400000</v>
+      </c>
+      <c r="E256" t="n">
+        <v>8208000</v>
+      </c>
+      <c r="F256" t="n">
+        <v>8359000</v>
+      </c>
+      <c r="G256" t="n">
+        <v>3334.03058018</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>517</v>
+      </c>
+      <c r="B257" t="s">
+        <v>518</v>
+      </c>
+      <c r="C257" t="n">
+        <v>8358000</v>
+      </c>
+      <c r="D257" t="n">
+        <v>8490000</v>
+      </c>
+      <c r="E257" t="n">
+        <v>8330000</v>
+      </c>
+      <c r="F257" t="n">
+        <v>8375000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>3432.43923415</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>519</v>
+      </c>
+      <c r="B258" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" t="n">
+        <v>8375000</v>
+      </c>
+      <c r="D258" t="n">
+        <v>8385000</v>
+      </c>
+      <c r="E258" t="n">
+        <v>8268000</v>
+      </c>
+      <c r="F258" t="n">
+        <v>8341000</v>
+      </c>
+      <c r="G258" t="n">
+        <v>2685.93901923</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>521</v>
+      </c>
+      <c r="B259" t="s">
+        <v>522</v>
+      </c>
+      <c r="C259" t="n">
+        <v>8341000</v>
+      </c>
+      <c r="D259" t="n">
+        <v>8370000</v>
+      </c>
+      <c r="E259" t="n">
+        <v>8205000</v>
+      </c>
+      <c r="F259" t="n">
+        <v>8233000</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1658.39383848</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>523</v>
+      </c>
+      <c r="B260" t="s">
+        <v>524</v>
+      </c>
+      <c r="C260" t="n">
+        <v>8233000</v>
+      </c>
+      <c r="D260" t="n">
+        <v>8247000</v>
+      </c>
+      <c r="E260" t="n">
+        <v>7425000</v>
+      </c>
+      <c r="F260" t="n">
+        <v>7576000</v>
+      </c>
+      <c r="G260" t="n">
+        <v>7445.15112262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>525</v>
+      </c>
+      <c r="B261" t="s">
+        <v>526</v>
+      </c>
+      <c r="C261" t="n">
+        <v>7576000</v>
+      </c>
+      <c r="D261" t="n">
+        <v>7662000</v>
+      </c>
+      <c r="E261" t="n">
+        <v>7362000</v>
+      </c>
+      <c r="F261" t="n">
+        <v>7635000</v>
+      </c>
+      <c r="G261" t="n">
+        <v>4309.230986</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>527</v>
+      </c>
+      <c r="B262" t="s">
+        <v>528</v>
+      </c>
+      <c r="C262" t="n">
+        <v>7635000</v>
+      </c>
+      <c r="D262" t="n">
+        <v>7685000</v>
+      </c>
+      <c r="E262" t="n">
+        <v>7270000</v>
+      </c>
+      <c r="F262" t="n">
+        <v>7350000</v>
+      </c>
+      <c r="G262" t="n">
+        <v>5044.24648135</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>529</v>
+      </c>
+      <c r="B263" t="s">
+        <v>530</v>
+      </c>
+      <c r="C263" t="n">
+        <v>7350000</v>
+      </c>
+      <c r="D263" t="n">
+        <v>7390000</v>
+      </c>
+      <c r="E263" t="n">
+        <v>6951000</v>
+      </c>
+      <c r="F263" t="n">
+        <v>7040000</v>
+      </c>
+      <c r="G263" t="n">
+        <v>4943.24050185</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>531</v>
+      </c>
+      <c r="B264" t="s">
+        <v>532</v>
+      </c>
+      <c r="C264" t="n">
+        <v>7039000</v>
+      </c>
+      <c r="D264" t="n">
+        <v>7380000</v>
+      </c>
+      <c r="E264" t="n">
+        <v>6977000</v>
+      </c>
+      <c r="F264" t="n">
+        <v>7355000</v>
+      </c>
+      <c r="G264" t="n">
+        <v>6511.9470463</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>533</v>
+      </c>
+      <c r="B265" t="s">
+        <v>534</v>
+      </c>
+      <c r="C265" t="n">
+        <v>7363000</v>
+      </c>
+      <c r="D265" t="n">
+        <v>7399000</v>
+      </c>
+      <c r="E265" t="n">
+        <v>7151000</v>
+      </c>
+      <c r="F265" t="n">
+        <v>7180000</v>
+      </c>
+      <c r="G265" t="n">
+        <v>3302.08916025</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>535</v>
+      </c>
+      <c r="B266" t="s">
+        <v>536</v>
+      </c>
+      <c r="C266" t="n">
+        <v>7180000</v>
+      </c>
+      <c r="D266" t="n">
+        <v>7336000</v>
+      </c>
+      <c r="E266" t="n">
+        <v>7116000</v>
+      </c>
+      <c r="F266" t="n">
+        <v>7277000</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2031.22860933</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>537</v>
+      </c>
+      <c r="B267" t="s">
+        <v>538</v>
+      </c>
+      <c r="C267" t="n">
+        <v>7275000</v>
+      </c>
+      <c r="D267" t="n">
+        <v>7329000</v>
+      </c>
+      <c r="E267" t="n">
+        <v>7206000</v>
+      </c>
+      <c r="F267" t="n">
+        <v>7218000</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1502.42292843</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>539</v>
+      </c>
+      <c r="B268" t="s">
+        <v>540</v>
+      </c>
+      <c r="C268" t="n">
+        <v>7231000</v>
+      </c>
+      <c r="D268" t="n">
+        <v>7550000</v>
+      </c>
+      <c r="E268" t="n">
+        <v>7135000</v>
+      </c>
+      <c r="F268" t="n">
+        <v>7461000</v>
+      </c>
+      <c r="G268" t="n">
+        <v>3050.85296824</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>541</v>
+      </c>
+      <c r="B269" t="s">
+        <v>542</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7461000</v>
+      </c>
+      <c r="D269" t="n">
+        <v>7649000</v>
+      </c>
+      <c r="E269" t="n">
+        <v>7370000</v>
+      </c>
+      <c r="F269" t="n">
+        <v>7553000</v>
+      </c>
+      <c r="G269" t="n">
+        <v>3830.01250877</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>543</v>
+      </c>
+      <c r="B270" t="s">
+        <v>544</v>
+      </c>
+      <c r="C270" t="n">
+        <v>7553000</v>
+      </c>
+      <c r="D270" t="n">
+        <v>7594000</v>
+      </c>
+      <c r="E270" t="n">
+        <v>7110000</v>
+      </c>
+      <c r="F270" t="n">
+        <v>7538000</v>
+      </c>
+      <c r="G270" t="n">
+        <v>5808.17313215</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>545</v>
+      </c>
+      <c r="B271" t="s">
+        <v>546</v>
+      </c>
+      <c r="C271" t="n">
+        <v>7538000</v>
+      </c>
+      <c r="D271" t="n">
+        <v>7580000</v>
+      </c>
+      <c r="E271" t="n">
+        <v>7445000</v>
+      </c>
+      <c r="F271" t="n">
+        <v>7511000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>3078.51433366</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>547</v>
+      </c>
+      <c r="B272" t="s">
+        <v>548</v>
+      </c>
+      <c r="C272" t="n">
+        <v>7511000</v>
+      </c>
+      <c r="D272" t="n">
+        <v>7537000</v>
+      </c>
+      <c r="E272" t="n">
+        <v>6870000</v>
+      </c>
+      <c r="F272" t="n">
+        <v>6962000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>6852.56894387</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>549</v>
+      </c>
+      <c r="B273" t="s">
+        <v>550</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6965000</v>
+      </c>
+      <c r="D273" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="E273" t="n">
+        <v>6845000</v>
+      </c>
+      <c r="F273" t="n">
+        <v>7030000</v>
+      </c>
+      <c r="G273" t="n">
+        <v>3078.68993934</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>551</v>
+      </c>
+      <c r="B274" t="s">
+        <v>552</v>
+      </c>
+      <c r="C274" t="n">
+        <v>7030000</v>
+      </c>
+      <c r="D274" t="n">
+        <v>7144000</v>
+      </c>
+      <c r="E274" t="n">
+        <v>6622000</v>
+      </c>
+      <c r="F274" t="n">
+        <v>6992000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>5399.26649924</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>553</v>
+      </c>
+      <c r="B275" t="s">
+        <v>554</v>
+      </c>
+      <c r="C275" t="n">
+        <v>6985000</v>
+      </c>
+      <c r="D275" t="n">
+        <v>7129000</v>
+      </c>
+      <c r="E275" t="n">
+        <v>6861000</v>
+      </c>
+      <c r="F275" t="n">
+        <v>7036000</v>
+      </c>
+      <c r="G275" t="n">
+        <v>4418.75854986</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>555</v>
+      </c>
+      <c r="B276" t="s">
+        <v>556</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7034000</v>
+      </c>
+      <c r="D276" t="n">
+        <v>7070000</v>
+      </c>
+      <c r="E276" t="n">
+        <v>6861000</v>
+      </c>
+      <c r="F276" t="n">
+        <v>6900000</v>
+      </c>
+      <c r="G276" t="n">
+        <v>3141.53841943</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>557</v>
+      </c>
+      <c r="B277" t="s">
+        <v>558</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6894000</v>
+      </c>
+      <c r="D277" t="n">
+        <v>6970000</v>
+      </c>
+      <c r="E277" t="n">
+        <v>6830000</v>
+      </c>
+      <c r="F277" t="n">
+        <v>6925000</v>
+      </c>
+      <c r="G277" t="n">
+        <v>3051.01947771</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>559</v>
+      </c>
+      <c r="B278" t="s">
+        <v>560</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6925000</v>
+      </c>
+      <c r="D278" t="n">
+        <v>6965000</v>
+      </c>
+      <c r="E278" t="n">
+        <v>6649000</v>
+      </c>
+      <c r="F278" t="n">
+        <v>6682000</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2655.94861923</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>561</v>
+      </c>
+      <c r="B279" t="s">
+        <v>562</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6671000</v>
+      </c>
+      <c r="D279" t="n">
+        <v>7078000</v>
+      </c>
+      <c r="E279" t="n">
+        <v>6590000</v>
+      </c>
+      <c r="F279" t="n">
+        <v>6958000</v>
+      </c>
+      <c r="G279" t="n">
+        <v>3607.75854253</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>563</v>
+      </c>
+      <c r="B280" t="s">
+        <v>564</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6958000</v>
+      </c>
+      <c r="D280" t="n">
+        <v>7290000</v>
+      </c>
+      <c r="E280" t="n">
+        <v>6950000</v>
+      </c>
+      <c r="F280" t="n">
+        <v>7164000</v>
+      </c>
+      <c r="G280" t="n">
+        <v>5213.79828927</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>565</v>
+      </c>
+      <c r="B281" t="s">
+        <v>566</v>
+      </c>
+      <c r="C281" t="n">
+        <v>7164000</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7212000</v>
+      </c>
+      <c r="E281" t="n">
+        <v>7002000</v>
+      </c>
+      <c r="F281" t="n">
+        <v>7109000</v>
+      </c>
+      <c r="G281" t="n">
+        <v>3151.10448153</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>567</v>
+      </c>
+      <c r="B282" t="s">
+        <v>568</v>
+      </c>
+      <c r="C282" t="n">
+        <v>7109000</v>
+      </c>
+      <c r="D282" t="n">
+        <v>7358000</v>
+      </c>
+      <c r="E282" t="n">
+        <v>7024000</v>
+      </c>
+      <c r="F282" t="n">
+        <v>7297000</v>
+      </c>
+      <c r="G282" t="n">
+        <v>5925.85399143</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>569</v>
+      </c>
+      <c r="B283" t="s">
+        <v>570</v>
+      </c>
+      <c r="C283" t="n">
+        <v>7289000</v>
+      </c>
+      <c r="D283" t="n">
+        <v>7399000</v>
+      </c>
+      <c r="E283" t="n">
+        <v>7231000</v>
+      </c>
+      <c r="F283" t="n">
+        <v>7298000</v>
+      </c>
+      <c r="G283" t="n">
+        <v>5239.81753579</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>571</v>
+      </c>
+      <c r="B284" t="s">
+        <v>572</v>
+      </c>
+      <c r="C284" t="n">
+        <v>7298000</v>
+      </c>
+      <c r="D284" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="E284" t="n">
+        <v>7104000</v>
+      </c>
+      <c r="F284" t="n">
+        <v>7329000</v>
+      </c>
+      <c r="G284" t="n">
+        <v>4984.70182867</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>573</v>
+      </c>
+      <c r="B285" t="s">
+        <v>574</v>
+      </c>
+      <c r="C285" t="n">
+        <v>7329000</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7445000</v>
+      </c>
+      <c r="E285" t="n">
+        <v>7270000</v>
+      </c>
+      <c r="F285" t="n">
+        <v>7377000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>4272.33855027</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>575</v>
+      </c>
+      <c r="B286" t="s">
+        <v>576</v>
+      </c>
+      <c r="C286" t="n">
+        <v>7377000</v>
+      </c>
+      <c r="D286" t="n">
+        <v>7488000</v>
+      </c>
+      <c r="E286" t="n">
+        <v>7282000</v>
+      </c>
+      <c r="F286" t="n">
+        <v>7480000</v>
+      </c>
+      <c r="G286" t="n">
+        <v>5355.98766532</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>577</v>
+      </c>
+      <c r="B287" t="s">
+        <v>578</v>
+      </c>
+      <c r="C287" t="n">
+        <v>7480000</v>
+      </c>
+      <c r="D287" t="n">
+        <v>7638000</v>
+      </c>
+      <c r="E287" t="n">
+        <v>7361000</v>
+      </c>
+      <c r="F287" t="n">
+        <v>7550000</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2077.59204362</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>579</v>
+      </c>
+      <c r="B288" t="s">
+        <v>580</v>
+      </c>
+      <c r="C288" t="n">
+        <v>7564000</v>
+      </c>
+      <c r="D288" t="n">
+        <v>7585000</v>
+      </c>
+      <c r="E288" t="n">
+        <v>7450000</v>
+      </c>
+      <c r="F288" t="n">
+        <v>7516000</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2801.16193621</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>581</v>
+      </c>
+      <c r="B289" t="s">
+        <v>582</v>
+      </c>
+      <c r="C289" t="n">
+        <v>7515000</v>
+      </c>
+      <c r="D289" t="n">
+        <v>7623000</v>
+      </c>
+      <c r="E289" t="n">
+        <v>7451000</v>
+      </c>
+      <c r="F289" t="n">
+        <v>7474000</v>
+      </c>
+      <c r="G289" t="n">
+        <v>3713.61975808</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>583</v>
+      </c>
+      <c r="B290" t="s">
+        <v>584</v>
+      </c>
+      <c r="C290" t="n">
+        <v>7474000</v>
+      </c>
+      <c r="D290" t="n">
+        <v>7518000</v>
+      </c>
+      <c r="E290" t="n">
+        <v>7127000</v>
+      </c>
+      <c r="F290" t="n">
+        <v>7140000</v>
+      </c>
+      <c r="G290" t="n">
+        <v>5199.60476183</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>585</v>
+      </c>
+      <c r="B291" t="s">
+        <v>586</v>
+      </c>
+      <c r="C291" t="n">
+        <v>7141000</v>
+      </c>
+      <c r="D291" t="n">
+        <v>7269000</v>
+      </c>
+      <c r="E291" t="n">
+        <v>7110000</v>
+      </c>
+      <c r="F291" t="n">
+        <v>7226000</v>
+      </c>
+      <c r="G291" t="n">
+        <v>3913.795349</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>587</v>
+      </c>
+      <c r="B292" t="s">
+        <v>588</v>
+      </c>
+      <c r="C292" t="n">
+        <v>7227000</v>
+      </c>
+      <c r="D292" t="n">
+        <v>7230000</v>
+      </c>
+      <c r="E292" t="n">
+        <v>6941000</v>
+      </c>
+      <c r="F292" t="n">
+        <v>7090000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>3724.82852502</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>589</v>
+      </c>
+      <c r="B293" t="s">
+        <v>590</v>
+      </c>
+      <c r="C293" t="n">
+        <v>7094000</v>
+      </c>
+      <c r="D293" t="n">
+        <v>7165000</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6973000</v>
+      </c>
+      <c r="F293" t="n">
+        <v>7054000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>3729.95994294</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>591</v>
+      </c>
+      <c r="B294" t="s">
+        <v>592</v>
+      </c>
+      <c r="C294" t="n">
+        <v>7054000</v>
+      </c>
+      <c r="D294" t="n">
+        <v>7160000</v>
+      </c>
+      <c r="E294" t="n">
+        <v>7036000</v>
+      </c>
+      <c r="F294" t="n">
+        <v>7109000</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1978.79800196</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>593</v>
+      </c>
+      <c r="B295" t="s">
+        <v>594</v>
+      </c>
+      <c r="C295" t="n">
+        <v>7109000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>7226000</v>
+      </c>
+      <c r="E295" t="n">
+        <v>7088000</v>
+      </c>
+      <c r="F295" t="n">
+        <v>7178000</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2385.70929754</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>595</v>
+      </c>
+      <c r="B296" t="s">
+        <v>596</v>
+      </c>
+      <c r="C296" t="n">
+        <v>7179000</v>
+      </c>
+      <c r="D296" t="n">
+        <v>7468000</v>
+      </c>
+      <c r="E296" t="n">
+        <v>7140000</v>
+      </c>
+      <c r="F296" t="n">
+        <v>7454000</v>
+      </c>
+      <c r="G296" t="n">
+        <v>6215.79333942</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" t="s">
+        <v>598</v>
+      </c>
+      <c r="C297" t="n">
+        <v>7454000</v>
+      </c>
+      <c r="D297" t="n">
+        <v>8140000</v>
+      </c>
+      <c r="E297" t="n">
+        <v>7419000</v>
+      </c>
+      <c r="F297" t="n">
+        <v>8080000</v>
+      </c>
+      <c r="G297" t="n">
+        <v>8866.81669526</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>599</v>
+      </c>
+      <c r="B298" t="s">
+        <v>600</v>
+      </c>
+      <c r="C298" t="n">
+        <v>8080000</v>
+      </c>
+      <c r="D298" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="E298" t="n">
+        <v>8071000</v>
+      </c>
+      <c r="F298" t="n">
+        <v>8302000</v>
+      </c>
+      <c r="G298" t="n">
+        <v>9226.44969555</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>601</v>
+      </c>
+      <c r="B299" t="s">
+        <v>602</v>
+      </c>
+      <c r="C299" t="n">
+        <v>8292000</v>
+      </c>
+      <c r="D299" t="n">
+        <v>8512000</v>
+      </c>
+      <c r="E299" t="n">
+        <v>8157000</v>
+      </c>
+      <c r="F299" t="n">
+        <v>8443000</v>
+      </c>
+      <c r="G299" t="n">
+        <v>6091.92994513</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>603</v>
+      </c>
+      <c r="B300" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300" t="n">
+        <v>8443000</v>
+      </c>
+      <c r="D300" t="n">
+        <v>8671000</v>
+      </c>
+      <c r="E300" t="n">
+        <v>8300000</v>
+      </c>
+      <c r="F300" t="n">
+        <v>8351000</v>
+      </c>
+      <c r="G300" t="n">
+        <v>7480.68995162</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301" t="s">
+        <v>606</v>
+      </c>
+      <c r="C301" t="n">
+        <v>8351000</v>
+      </c>
+      <c r="D301" t="n">
+        <v>8387000</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8185000</v>
+      </c>
+      <c r="F301" t="n">
+        <v>8367000</v>
+      </c>
+      <c r="G301" t="n">
+        <v>3409.02111567</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302" t="s">
+        <v>608</v>
+      </c>
+      <c r="C302" t="n">
+        <v>8367000</v>
+      </c>
+      <c r="D302" t="n">
+        <v>8530000</v>
+      </c>
+      <c r="E302" t="n">
+        <v>8270000</v>
+      </c>
+      <c r="F302" t="n">
+        <v>8349000</v>
+      </c>
+      <c r="G302" t="n">
+        <v>3853.45997189</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>609</v>
+      </c>
+      <c r="B303" t="s">
+        <v>610</v>
+      </c>
+      <c r="C303" t="n">
+        <v>8347000</v>
+      </c>
+      <c r="D303" t="n">
+        <v>8844000</v>
+      </c>
+      <c r="E303" t="n">
+        <v>8275000</v>
+      </c>
+      <c r="F303" t="n">
+        <v>8752000</v>
+      </c>
+      <c r="G303" t="n">
+        <v>9851.82951569</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304" t="s">
+        <v>612</v>
+      </c>
+      <c r="C304" t="n">
+        <v>8752000</v>
+      </c>
+      <c r="D304" t="n">
+        <v>9525000</v>
+      </c>
+      <c r="E304" t="n">
+        <v>8701000</v>
+      </c>
+      <c r="F304" t="n">
+        <v>9452000</v>
+      </c>
+      <c r="G304" t="n">
+        <v>16483.79995859</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305" t="s">
+        <v>614</v>
+      </c>
+      <c r="C305" t="n">
+        <v>9458000</v>
+      </c>
+      <c r="D305" t="n">
+        <v>9578000</v>
+      </c>
+      <c r="E305" t="n">
+        <v>9054000</v>
+      </c>
+      <c r="F305" t="n">
+        <v>9158000</v>
+      </c>
+      <c r="G305" t="n">
+        <v>11238.21728445</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" t="s">
+        <v>616</v>
+      </c>
+      <c r="C306" t="n">
+        <v>9158000</v>
+      </c>
+      <c r="D306" t="n">
+        <v>9299000</v>
+      </c>
+      <c r="E306" t="n">
+        <v>8815000</v>
+      </c>
+      <c r="F306" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="G306" t="n">
+        <v>7716.0562582</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307" t="s">
+        <v>618</v>
+      </c>
+      <c r="C307" t="n">
+        <v>8950000</v>
+      </c>
+      <c r="D307" t="n">
+        <v>9259000</v>
+      </c>
+      <c r="E307" t="n">
+        <v>8780000</v>
+      </c>
+      <c r="F307" t="n">
+        <v>9122000</v>
+      </c>
+      <c r="G307" t="n">
+        <v>10051.36343373</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" t="s">
+        <v>620</v>
+      </c>
+      <c r="C308" t="n">
+        <v>9138000</v>
+      </c>
+      <c r="D308" t="n">
+        <v>9229000</v>
+      </c>
+      <c r="E308" t="n">
+        <v>9064000</v>
+      </c>
+      <c r="F308" t="n">
+        <v>9225000</v>
+      </c>
+      <c r="G308" t="n">
+        <v>3917.2811502</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>621</v>
+      </c>
+      <c r="B309" t="s">
+        <v>622</v>
+      </c>
+      <c r="C309" t="n">
+        <v>9229000</v>
+      </c>
+      <c r="D309" t="n">
+        <v>9310000</v>
+      </c>
+      <c r="E309" t="n">
+        <v>9153000</v>
+      </c>
+      <c r="F309" t="n">
+        <v>9238000</v>
+      </c>
+      <c r="G309" t="n">
+        <v>4119.53145198</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>623</v>
+      </c>
+      <c r="B310" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310" t="n">
+        <v>9238000</v>
+      </c>
+      <c r="D310" t="n">
+        <v>9280000</v>
+      </c>
+      <c r="E310" t="n">
+        <v>8955000</v>
+      </c>
+      <c r="F310" t="n">
+        <v>9270000</v>
+      </c>
+      <c r="G310" t="n">
+        <v>5498.91600049</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>625</v>
+      </c>
+      <c r="B311" t="s">
+        <v>626</v>
+      </c>
+      <c r="C311" t="n">
+        <v>9270000</v>
+      </c>
+      <c r="D311" t="n">
+        <v>9278000</v>
+      </c>
+      <c r="E311" t="n">
+        <v>8690000</v>
+      </c>
+      <c r="F311" t="n">
+        <v>8800000</v>
+      </c>
+      <c r="G311" t="n">
+        <v>8921.98646091</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>627</v>
+      </c>
+      <c r="B312" t="s">
+        <v>628</v>
+      </c>
+      <c r="C312" t="n">
+        <v>8807000</v>
+      </c>
+      <c r="D312" t="n">
+        <v>8844000</v>
+      </c>
+      <c r="E312" t="n">
+        <v>8548000</v>
+      </c>
+      <c r="F312" t="n">
+        <v>8726000</v>
+      </c>
+      <c r="G312" t="n">
+        <v>6031.73716216</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>629</v>
+      </c>
+      <c r="B313" t="s">
+        <v>630</v>
+      </c>
+      <c r="C313" t="n">
+        <v>8725000</v>
+      </c>
+      <c r="D313" t="n">
+        <v>8940000</v>
+      </c>
+      <c r="E313" t="n">
+        <v>8626000</v>
+      </c>
+      <c r="F313" t="n">
+        <v>8731000</v>
+      </c>
+      <c r="G313" t="n">
+        <v>6310.22735019</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>631</v>
+      </c>
+      <c r="B314" t="s">
+        <v>632</v>
+      </c>
+      <c r="C314" t="n">
+        <v>8730000</v>
+      </c>
+      <c r="D314" t="n">
+        <v>8730000</v>
+      </c>
+      <c r="E314" t="n">
+        <v>8372000</v>
+      </c>
+      <c r="F314" t="n">
+        <v>8508000</v>
+      </c>
+      <c r="G314" t="n">
+        <v>6142.54285504</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>633</v>
+      </c>
+      <c r="B315" t="s">
+        <v>634</v>
+      </c>
+      <c r="C315" t="n">
+        <v>8508000</v>
+      </c>
+      <c r="D315" t="n">
+        <v>8610000</v>
+      </c>
+      <c r="E315" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="F315" t="n">
+        <v>8074000</v>
+      </c>
+      <c r="G315" t="n">
+        <v>5211.46198607</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>635</v>
+      </c>
+      <c r="B316" t="s">
+        <v>636</v>
+      </c>
+      <c r="C316" t="n">
+        <v>8074000</v>
+      </c>
+      <c r="D316" t="n">
+        <v>8181000</v>
+      </c>
+      <c r="E316" t="n">
+        <v>7915000</v>
+      </c>
+      <c r="F316" t="n">
+        <v>8077000</v>
+      </c>
+      <c r="G316" t="n">
+        <v>3578.83736395</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>637</v>
+      </c>
+      <c r="B317" t="s">
+        <v>638</v>
+      </c>
+      <c r="C317" t="n">
+        <v>8075000</v>
+      </c>
+      <c r="D317" t="n">
+        <v>8200000</v>
+      </c>
+      <c r="E317" t="n">
+        <v>7900000</v>
+      </c>
+      <c r="F317" t="n">
+        <v>7982000</v>
+      </c>
+      <c r="G317" t="n">
+        <v>3802.49007138</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>639</v>
+      </c>
+      <c r="B318" t="s">
+        <v>640</v>
+      </c>
+      <c r="C318" t="n">
+        <v>7973000</v>
+      </c>
+      <c r="D318" t="n">
+        <v>8190000</v>
+      </c>
+      <c r="E318" t="n">
+        <v>7750000</v>
+      </c>
+      <c r="F318" t="n">
+        <v>7760000</v>
+      </c>
+      <c r="G318" t="n">
+        <v>5910.20815105</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>641</v>
+      </c>
+      <c r="B319" t="s">
+        <v>642</v>
+      </c>
+      <c r="C319" t="n">
+        <v>7760000</v>
+      </c>
+      <c r="D319" t="n">
+        <v>7766000</v>
+      </c>
+      <c r="E319" t="n">
+        <v>7464000</v>
+      </c>
+      <c r="F319" t="n">
+        <v>7504000</v>
+      </c>
+      <c r="G319" t="n">
+        <v>5287.13329955</v>
       </c>
     </row>
   </sheetData>
